--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Schedular using PAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Scheduler-With-PAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336759CF-DA8D-4993-BF7F-E156752C69EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80EBFBD-597D-45B3-907B-E9C7D8B1B326}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,12 +84,6 @@
     <t>19:00</t>
   </si>
   <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
     <t>Supper</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Get to Wrok</t>
   </si>
   <si>
-    <t>20:30</t>
-  </si>
-  <si>
     <t>10:02</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>01:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>22:50</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,19 +598,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="2"/>
@@ -661,13 +661,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="2"/>
@@ -675,13 +675,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="2"/>
@@ -689,13 +689,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="2"/>
